--- a/Source Code/User experience test/Questionnaire_part2.xlsx
+++ b/Source Code/User experience test/Questionnaire_part2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Master thesis revise/User experience test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E89B1-0CF8-294E-BD94-662835CE5EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8CDF25-FB2D-A54C-B658-D3031646BF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{E7C60A5D-A8B0-2B48-9CA7-D1782EFCD35A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{E7C60A5D-A8B0-2B48-9CA7-D1782EFCD35A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,6 +485,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -825,58 +828,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D0D308-CAC6-C342-9A5C-0EE55A49E18C}">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9:AK17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="50.83203125" customWidth="1"/>
-    <col min="41" max="41" width="70" customWidth="1"/>
+    <col min="43" max="43" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="17" thickBot="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:43" ht="17" thickBot="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:41" ht="17">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:43" ht="17">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="28">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+    <row r="3" spans="1:43" ht="28">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="29" thickBot="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+    <row r="4" spans="1:43" ht="29" thickBot="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="17" thickBot="1">
+    <row r="5" spans="1:43" ht="17" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -955,51 +958,57 @@
       <c r="AB5" s="11">
         <v>25</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="12">
         <v>26</v>
       </c>
       <c r="AD5" s="11">
         <v>27</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="12">
         <v>28</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AF5" s="11">
+        <v>29</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AI5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AH5" s="14" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="14" t="s">
+      <c r="AK5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AJ5" s="14" t="s">
+      <c r="AL5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AK5" s="14" t="s">
+      <c r="AM5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AL5" s="14" t="s">
+      <c r="AN5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AM5" s="14" t="s">
+      <c r="AO5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AP5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AO5" s="14" t="s">
+      <c r="AQ5" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="18" thickBot="1">
+    <row r="6" spans="1:43" ht="18" thickBot="1">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1021,10 +1030,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="8">
         <v>5</v>
@@ -1048,25 +1057,25 @@
         <v>3</v>
       </c>
       <c r="R6" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" s="8">
         <v>4</v>
       </c>
-      <c r="U6" s="9">
-        <v>3</v>
+      <c r="U6" s="8">
+        <v>4</v>
       </c>
       <c r="V6" s="9">
         <v>3</v>
       </c>
-      <c r="W6" s="8">
-        <v>4</v>
+      <c r="W6" s="9">
+        <v>3</v>
       </c>
       <c r="X6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="8">
         <v>5</v>
@@ -1089,50 +1098,56 @@
       <c r="AE6" s="8">
         <v>4</v>
       </c>
-      <c r="AF6" s="17">
-        <f>AVERAGE(D6:AE6)</f>
-        <v>3.8928571428571428</v>
-      </c>
-      <c r="AG6" s="24">
-        <f>SUM(AF6:AF8)</f>
-        <v>11.321428571428571</v>
-      </c>
-      <c r="AH6" s="24">
-        <f>AG6/3</f>
-        <v>3.7738095238095237</v>
-      </c>
-      <c r="AI6" s="24">
+      <c r="AF6" s="20">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="17">
+        <f t="shared" ref="AH6:AH26" si="0">AVERAGE(D6:AG6)</f>
+        <v>3.9</v>
+      </c>
+      <c r="AI6" s="25">
+        <f>SUM(AH6:AH8)</f>
+        <v>11.3</v>
+      </c>
+      <c r="AJ6" s="25">
+        <f>AI6/3</f>
+        <v>3.7666666666666671</v>
+      </c>
+      <c r="AK6" s="25">
         <v>0.33100000000000002</v>
       </c>
-      <c r="AJ6" s="24">
-        <f>AG6*AI6</f>
-        <v>3.7473928571428572</v>
-      </c>
-      <c r="AK6" s="24">
-        <f>15*AI6</f>
+      <c r="AL6" s="25">
+        <f>AI6*AK6</f>
+        <v>3.7403000000000004</v>
+      </c>
+      <c r="AM6" s="25">
+        <f>15*AK6</f>
         <v>4.9649999999999999</v>
       </c>
-      <c r="AL6" s="24">
-        <f>AJ6/AK6</f>
-        <v>0.75476190476190474</v>
-      </c>
-      <c r="AM6" s="24">
-        <f>AH6*AI6</f>
-        <v>1.2491309523809524</v>
-      </c>
-      <c r="AN6" s="18">
-        <f>AF6*AI6</f>
-        <v>1.2885357142857143</v>
-      </c>
-      <c r="AO6" s="13" t="s">
+      <c r="AN6" s="25">
+        <f>AL6/AM6</f>
+        <v>0.75333333333333341</v>
+      </c>
+      <c r="AO6" s="25">
+        <f>AJ6*AK6</f>
+        <v>1.2467666666666668</v>
+      </c>
+      <c r="AP6" s="18">
+        <f>AH6*AK6</f>
+        <v>1.2908999999999999</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="18" thickBot="1">
+    <row r="7" spans="1:43" ht="18" thickBot="1">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1152,10 +1167,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" s="8">
         <v>3</v>
@@ -1182,22 +1197,22 @@
         <v>3</v>
       </c>
       <c r="S7" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7" s="8">
-        <v>3</v>
-      </c>
-      <c r="U7" s="9">
+        <v>4</v>
+      </c>
+      <c r="U7" s="8">
         <v>3</v>
       </c>
       <c r="V7" s="9">
-        <v>4</v>
-      </c>
-      <c r="W7" s="8">
+        <v>3</v>
+      </c>
+      <c r="W7" s="9">
         <v>4</v>
       </c>
       <c r="X7" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="8">
         <v>5</v>
@@ -1220,30 +1235,36 @@
       <c r="AE7" s="8">
         <v>4</v>
       </c>
-      <c r="AF7" s="17">
-        <f t="shared" ref="AF7:AF26" si="0">AVERAGE(D7:AE7)</f>
-        <v>3.5</v>
-      </c>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="18">
-        <f>AF7*AI6</f>
-        <v>1.1585000000000001</v>
-      </c>
-      <c r="AO7" s="13" t="s">
+      <c r="AF7" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="20">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="17">
+        <f t="shared" si="0"/>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="18">
+        <f>AH7*AK6</f>
+        <v>1.1474666666666669</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="18" thickBot="1">
+    <row r="8" spans="1:43" ht="18" thickBot="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
@@ -1290,25 +1311,25 @@
         <v>4</v>
       </c>
       <c r="R8" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" s="8">
         <v>4</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="8">
         <v>4</v>
       </c>
       <c r="V8" s="9">
-        <v>3</v>
-      </c>
-      <c r="W8" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W8" s="9">
+        <v>3</v>
       </c>
       <c r="X8" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y8" s="8">
         <v>4</v>
@@ -1331,30 +1352,36 @@
       <c r="AE8" s="8">
         <v>5</v>
       </c>
-      <c r="AF8" s="17">
+      <c r="AF8" s="20">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="17">
         <f t="shared" si="0"/>
-        <v>3.9285714285714284</v>
-      </c>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="18">
-        <f>AF8*AI6</f>
-        <v>1.3003571428571428</v>
-      </c>
-      <c r="AO8" s="13" t="s">
+        <v>3.9333333333333331</v>
+      </c>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="18">
+        <f>AH8*AK6</f>
+        <v>1.3019333333333334</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="18" thickBot="1">
+    <row r="9" spans="1:43" ht="18" thickBot="1">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1376,10 +1403,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" s="8">
         <v>5</v>
@@ -1403,25 +1430,25 @@
         <v>3</v>
       </c>
       <c r="R9" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S9" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" s="8">
-        <v>3</v>
-      </c>
-      <c r="U9" s="9">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="U9" s="8">
+        <v>3</v>
       </c>
       <c r="V9" s="9">
-        <v>3</v>
-      </c>
-      <c r="W9" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W9" s="9">
+        <v>3</v>
       </c>
       <c r="X9" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="8">
         <v>5</v>
@@ -1444,50 +1471,56 @@
       <c r="AE9" s="8">
         <v>5</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AF9" s="20">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="17">
         <f t="shared" si="0"/>
-        <v>4.1428571428571432</v>
-      </c>
-      <c r="AG9" s="24">
-        <f>SUM(AF9:AF17)</f>
-        <v>36.071428571428569</v>
-      </c>
-      <c r="AH9" s="24">
-        <f>AG9/9</f>
-        <v>4.0079365079365079</v>
-      </c>
-      <c r="AI9" s="24">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AI9" s="25">
+        <f>SUM(AH9:AH17)</f>
+        <v>35.999999999999993</v>
+      </c>
+      <c r="AJ9" s="25">
+        <f>AI9/9</f>
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="AK9" s="25">
         <v>0.22120000000000001</v>
       </c>
-      <c r="AJ9" s="24">
-        <f>AG9*AI9</f>
-        <v>7.9790000000000001</v>
-      </c>
-      <c r="AK9" s="24">
-        <f>45*AI9</f>
+      <c r="AL9" s="25">
+        <f>AI9*AK9</f>
+        <v>7.9631999999999987</v>
+      </c>
+      <c r="AM9" s="25">
+        <f>45*AK9</f>
         <v>9.9540000000000006</v>
       </c>
-      <c r="AL9" s="24">
-        <f>AJ9/AK9</f>
-        <v>0.80158730158730152</v>
-      </c>
-      <c r="AM9" s="24">
-        <f>AH9*AI9</f>
-        <v>0.88655555555555554</v>
-      </c>
-      <c r="AN9" s="18">
-        <f>AF9*AI9</f>
-        <v>0.9164000000000001</v>
-      </c>
-      <c r="AO9" s="13" t="s">
+      <c r="AN9" s="25">
+        <f>AL9/AM9</f>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="AO9" s="25">
+        <f>AJ9*AK9</f>
+        <v>0.88479999999999981</v>
+      </c>
+      <c r="AP9" s="18">
+        <f>AH9*AK9</f>
+        <v>0.92166666666666675</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="18" thickBot="1">
+    <row r="10" spans="1:43" ht="18" thickBot="1">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
@@ -1507,10 +1540,10 @@
         <v>4</v>
       </c>
       <c r="I10" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" s="8">
         <v>5</v>
@@ -1534,25 +1567,25 @@
         <v>3</v>
       </c>
       <c r="R10" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S10" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" s="8">
         <v>4</v>
       </c>
-      <c r="U10" s="9">
-        <v>3</v>
+      <c r="U10" s="8">
+        <v>4</v>
       </c>
       <c r="V10" s="9">
         <v>3</v>
       </c>
-      <c r="W10" s="8">
-        <v>4</v>
+      <c r="W10" s="9">
+        <v>3</v>
       </c>
       <c r="X10" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="8">
         <v>5</v>
@@ -1575,30 +1608,36 @@
       <c r="AE10" s="8">
         <v>5</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AF10" s="20">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="17">
         <f t="shared" si="0"/>
-        <v>4.1428571428571432</v>
-      </c>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="18">
-        <f>AF10*AI9</f>
-        <v>0.9164000000000001</v>
-      </c>
-      <c r="AO10" s="13" t="s">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="18">
+        <f>AH10*AK9</f>
+        <v>0.92166666666666675</v>
+      </c>
+      <c r="AQ10" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="18" thickBot="1">
+    <row r="11" spans="1:43" ht="18" thickBot="1">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1618,10 +1657,10 @@
         <v>4</v>
       </c>
       <c r="I11" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" s="8">
         <v>5</v>
@@ -1645,25 +1684,25 @@
         <v>3</v>
       </c>
       <c r="R11" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" s="8">
-        <v>3</v>
-      </c>
-      <c r="U11" s="9">
+        <v>4</v>
+      </c>
+      <c r="U11" s="8">
         <v>3</v>
       </c>
       <c r="V11" s="9">
-        <v>2</v>
-      </c>
-      <c r="W11" s="8">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="W11" s="9">
+        <v>2</v>
       </c>
       <c r="X11" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="8">
         <v>4</v>
@@ -1686,30 +1725,36 @@
       <c r="AE11" s="8">
         <v>5</v>
       </c>
-      <c r="AF11" s="17">
+      <c r="AF11" s="20">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="17">
         <f t="shared" si="0"/>
-        <v>3.9642857142857144</v>
-      </c>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="18">
-        <f>AF11*AI9</f>
-        <v>0.87690000000000001</v>
-      </c>
-      <c r="AO11" s="13" t="s">
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="18">
+        <f>AH11*AK9</f>
+        <v>0.87742666666666669</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="18" thickBot="1">
+    <row r="12" spans="1:43" ht="18" thickBot="1">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1729,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="I12" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="8">
         <v>5</v>
@@ -1756,25 +1801,25 @@
         <v>3</v>
       </c>
       <c r="R12" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S12" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" s="8">
         <v>4</v>
       </c>
-      <c r="U12" s="9">
-        <v>3</v>
+      <c r="U12" s="8">
+        <v>4</v>
       </c>
       <c r="V12" s="9">
-        <v>2</v>
-      </c>
-      <c r="W12" s="8">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="W12" s="9">
+        <v>2</v>
       </c>
       <c r="X12" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y12" s="8">
         <v>5</v>
@@ -1797,30 +1842,36 @@
       <c r="AE12" s="8">
         <v>5</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AF12" s="20">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH12" s="17">
         <f t="shared" si="0"/>
-        <v>3.9285714285714284</v>
-      </c>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="18">
-        <f>AF12*AI9</f>
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="AO12" s="13" t="s">
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="18">
+        <f>AH12*AK9</f>
+        <v>0.87742666666666669</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="18" thickBot="1">
+    <row r="13" spans="1:43" ht="18" thickBot="1">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1840,10 +1891,10 @@
         <v>3</v>
       </c>
       <c r="I13" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" s="8">
         <v>5</v>
@@ -1867,25 +1918,25 @@
         <v>3</v>
       </c>
       <c r="R13" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" s="8">
-        <v>3</v>
-      </c>
-      <c r="U13" s="9">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="U13" s="8">
+        <v>3</v>
       </c>
       <c r="V13" s="9">
-        <v>3</v>
-      </c>
-      <c r="W13" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W13" s="9">
+        <v>3</v>
       </c>
       <c r="X13" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y13" s="8">
         <v>4</v>
@@ -1908,30 +1959,36 @@
       <c r="AE13" s="8">
         <v>4</v>
       </c>
-      <c r="AF13" s="17">
+      <c r="AF13" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH13" s="17">
         <f t="shared" si="0"/>
-        <v>3.9642857142857144</v>
-      </c>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="18">
-        <f>AF13*AI9</f>
-        <v>0.87690000000000001</v>
-      </c>
-      <c r="AO13" s="13" t="s">
+        <v>3.9333333333333331</v>
+      </c>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="18">
+        <f>AH13*AK9</f>
+        <v>0.87005333333333335</v>
+      </c>
+      <c r="AQ13" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="18" thickBot="1">
+    <row r="14" spans="1:43" ht="18" thickBot="1">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1951,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" s="8">
         <v>5</v>
@@ -1978,25 +2035,25 @@
         <v>3</v>
       </c>
       <c r="R14" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S14" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" s="8">
         <v>4</v>
       </c>
-      <c r="U14" s="9">
-        <v>3</v>
+      <c r="U14" s="8">
+        <v>4</v>
       </c>
       <c r="V14" s="9">
         <v>3</v>
       </c>
-      <c r="W14" s="8">
-        <v>4</v>
+      <c r="W14" s="9">
+        <v>3</v>
       </c>
       <c r="X14" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="8">
         <v>5</v>
@@ -2019,30 +2076,36 @@
       <c r="AE14" s="8">
         <v>4</v>
       </c>
-      <c r="AF14" s="17">
+      <c r="AF14" s="20">
+        <v>4</v>
+      </c>
+      <c r="AG14" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="17">
         <f t="shared" si="0"/>
-        <v>3.9642857142857144</v>
-      </c>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="18">
-        <f>AF14*AI9</f>
-        <v>0.87690000000000001</v>
-      </c>
-      <c r="AO14" s="13" t="s">
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="18">
+        <f>AH14*AK9</f>
+        <v>0.87742666666666669</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="18" thickBot="1">
+    <row r="15" spans="1:43" ht="18" thickBot="1">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
@@ -2062,10 +2125,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="8">
         <v>5</v>
@@ -2092,22 +2155,22 @@
         <v>5</v>
       </c>
       <c r="S15" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15" s="8">
-        <v>3</v>
-      </c>
-      <c r="U15" s="9">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="U15" s="8">
+        <v>3</v>
       </c>
       <c r="V15" s="9">
         <v>4</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="9">
         <v>4</v>
       </c>
       <c r="X15" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y15" s="8">
         <v>5</v>
@@ -2130,30 +2193,36 @@
       <c r="AE15" s="8">
         <v>5</v>
       </c>
-      <c r="AF15" s="17">
+      <c r="AF15" s="20">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="17">
         <f t="shared" si="0"/>
-        <v>4.0357142857142856</v>
-      </c>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="18">
-        <f>AF15*AI9</f>
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="AO15" s="13" t="s">
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="18">
+        <f>AH15*AK9</f>
+        <v>0.89217333333333337</v>
+      </c>
+      <c r="AQ15" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="18" thickBot="1">
+    <row r="16" spans="1:43" ht="18" thickBot="1">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
@@ -2173,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="8">
         <v>5</v>
@@ -2200,21 +2269,21 @@
         <v>3</v>
       </c>
       <c r="R16" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" s="8">
-        <v>3</v>
-      </c>
-      <c r="U16" s="9">
+        <v>4</v>
+      </c>
+      <c r="U16" s="8">
         <v>3</v>
       </c>
       <c r="V16" s="9">
-        <v>4</v>
-      </c>
-      <c r="W16" s="8">
+        <v>3</v>
+      </c>
+      <c r="W16" s="9">
         <v>4</v>
       </c>
       <c r="X16" s="8">
@@ -2241,30 +2310,36 @@
       <c r="AE16" s="8">
         <v>5</v>
       </c>
-      <c r="AF16" s="17">
+      <c r="AF16" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="20">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="17">
         <f t="shared" si="0"/>
-        <v>3.9285714285714284</v>
-      </c>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="18">
-        <f>AF16*AI9</f>
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="AO16" s="13" t="s">
+        <v>3.8666666666666667</v>
+      </c>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="18">
+        <f>AH16*AK9</f>
+        <v>0.85530666666666666</v>
+      </c>
+      <c r="AQ16" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="18" thickBot="1">
+    <row r="17" spans="1:43" ht="18" thickBot="1">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
@@ -2284,10 +2359,10 @@
         <v>3</v>
       </c>
       <c r="I17" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" s="8">
         <v>5</v>
@@ -2311,21 +2386,21 @@
         <v>3</v>
       </c>
       <c r="R17" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" s="8">
         <v>4</v>
       </c>
-      <c r="U17" s="9">
-        <v>3</v>
+      <c r="U17" s="8">
+        <v>4</v>
       </c>
       <c r="V17" s="9">
-        <v>4</v>
-      </c>
-      <c r="W17" s="8">
+        <v>3</v>
+      </c>
+      <c r="W17" s="9">
         <v>4</v>
       </c>
       <c r="X17" s="8">
@@ -2352,30 +2427,36 @@
       <c r="AE17" s="8">
         <v>2</v>
       </c>
-      <c r="AF17" s="17">
+      <c r="AF17" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="20">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="26"/>
+        <v>3.9333333333333331</v>
+      </c>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
       <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="18">
-        <f>AF17*AI9</f>
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="AO17" s="13" t="s">
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="18">
+        <f>AH17*AK9</f>
+        <v>0.87005333333333335</v>
+      </c>
+      <c r="AQ17" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="18" thickBot="1">
+    <row r="18" spans="1:43" ht="18" thickBot="1">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2397,10 +2478,10 @@
         <v>3</v>
       </c>
       <c r="I18" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" s="8">
         <v>5</v>
@@ -2424,22 +2505,22 @@
         <v>3</v>
       </c>
       <c r="R18" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" s="8">
-        <v>3</v>
-      </c>
-      <c r="U18" s="9">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="U18" s="8">
+        <v>3</v>
       </c>
       <c r="V18" s="9">
-        <v>3</v>
-      </c>
-      <c r="W18" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W18" s="9">
+        <v>3</v>
       </c>
       <c r="X18" s="8">
         <v>4</v>
@@ -2465,50 +2546,56 @@
       <c r="AE18" s="8">
         <v>4</v>
       </c>
-      <c r="AF18" s="17">
+      <c r="AF18" s="20">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH18" s="17">
         <f t="shared" si="0"/>
-        <v>4.0357142857142856</v>
-      </c>
-      <c r="AG18" s="24">
-        <f>SUM(AF18:AF19)</f>
-        <v>7.9642857142857135</v>
-      </c>
-      <c r="AH18" s="24">
-        <f>AG18/2</f>
-        <v>3.9821428571428568</v>
-      </c>
-      <c r="AI18" s="27">
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="AI18" s="25">
+        <f>SUM(AH18:AH19)</f>
+        <v>7.9</v>
+      </c>
+      <c r="AJ18" s="25">
+        <f>AI18/2</f>
+        <v>3.95</v>
+      </c>
+      <c r="AK18" s="28">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="AJ18" s="24">
-        <f>AG18*AI18</f>
-        <v>0.55590714285714282</v>
-      </c>
-      <c r="AK18" s="24">
-        <f>10*AI18</f>
+      <c r="AL18" s="25">
+        <f>AI18*AK18</f>
+        <v>0.55142000000000002</v>
+      </c>
+      <c r="AM18" s="25">
+        <f>10*AK18</f>
         <v>0.69799999999999995</v>
       </c>
-      <c r="AL18" s="24">
-        <f>AJ18/AK18</f>
-        <v>0.79642857142857149</v>
-      </c>
-      <c r="AM18" s="24">
-        <f>AH18*AI18</f>
-        <v>0.27795357142857141</v>
-      </c>
-      <c r="AN18" s="18">
-        <f>AF18*AI18</f>
-        <v>0.28169285714285713</v>
-      </c>
-      <c r="AO18" s="13" t="s">
+      <c r="AN18" s="25">
+        <f>AL18/AM18</f>
+        <v>0.79</v>
+      </c>
+      <c r="AO18" s="25">
+        <f>AJ18*AK18</f>
+        <v>0.27571000000000001</v>
+      </c>
+      <c r="AP18" s="18">
+        <f>AH18*AK18</f>
+        <v>0.28152666666666665</v>
+      </c>
+      <c r="AQ18" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="18" thickBot="1">
+    <row r="19" spans="1:43" ht="18" thickBot="1">
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
@@ -2528,10 +2615,10 @@
         <v>2</v>
       </c>
       <c r="I19" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" s="8">
         <v>5</v>
@@ -2555,22 +2642,22 @@
         <v>3</v>
       </c>
       <c r="R19" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" s="8">
         <v>4</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="8">
         <v>4</v>
       </c>
       <c r="V19" s="9">
-        <v>3</v>
-      </c>
-      <c r="W19" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W19" s="9">
+        <v>3</v>
       </c>
       <c r="X19" s="8">
         <v>4</v>
@@ -2596,30 +2683,36 @@
       <c r="AE19" s="8">
         <v>4</v>
       </c>
-      <c r="AF19" s="17">
+      <c r="AF19" s="20">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="20">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="17">
         <f t="shared" si="0"/>
-        <v>3.9285714285714284</v>
-      </c>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
+        <v>3.8666666666666667</v>
+      </c>
       <c r="AI19" s="27"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="18">
-        <f>AF19*AI18</f>
-        <v>0.27421428571428569</v>
-      </c>
-      <c r="AO19" s="13" t="s">
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="18">
+        <f>AH19*AK18</f>
+        <v>0.26989333333333332</v>
+      </c>
+      <c r="AQ19" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="18" thickBot="1">
+    <row r="20" spans="1:43" ht="18" thickBot="1">
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2641,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K20" s="8">
         <v>5</v>
@@ -2668,22 +2761,22 @@
         <v>3</v>
       </c>
       <c r="R20" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" s="8">
-        <v>3</v>
-      </c>
-      <c r="U20" s="9">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="U20" s="8">
+        <v>3</v>
       </c>
       <c r="V20" s="9">
-        <v>3</v>
-      </c>
-      <c r="W20" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W20" s="9">
+        <v>3</v>
       </c>
       <c r="X20" s="8">
         <v>4</v>
@@ -2709,50 +2802,56 @@
       <c r="AE20" s="8">
         <v>5</v>
       </c>
-      <c r="AF20" s="17">
+      <c r="AF20" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="20">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="17">
         <f t="shared" si="0"/>
-        <v>3.7142857142857144</v>
-      </c>
-      <c r="AG20" s="24">
-        <f>SUM(AF20:AF23)</f>
-        <v>14.535714285714285</v>
-      </c>
-      <c r="AH20" s="24">
-        <f>AG20/4</f>
-        <v>3.6339285714285712</v>
-      </c>
-      <c r="AI20" s="24">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AI20" s="25">
+        <f>SUM(AH20:AH23)</f>
+        <v>14.333333333333332</v>
+      </c>
+      <c r="AJ20" s="25">
+        <f>AI20/4</f>
+        <v>3.583333333333333</v>
+      </c>
+      <c r="AK20" s="25">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="AJ20" s="24">
-        <f>AG20*AI20</f>
-        <v>1.3067607142857141</v>
-      </c>
-      <c r="AK20" s="24">
-        <f>20*AI20</f>
+      <c r="AL20" s="25">
+        <f>AI20*AK20</f>
+        <v>1.2885666666666664</v>
+      </c>
+      <c r="AM20" s="25">
+        <f>20*AK20</f>
         <v>1.7979999999999998</v>
       </c>
-      <c r="AL20" s="24">
-        <f>AJ20/AK20</f>
-        <v>0.72678571428571426</v>
-      </c>
-      <c r="AM20" s="24">
-        <f>AH20*AI20</f>
-        <v>0.32669017857142851</v>
-      </c>
-      <c r="AN20" s="18">
-        <f>AF20*AI20</f>
-        <v>0.33391428571428572</v>
-      </c>
-      <c r="AO20" s="13" t="s">
+      <c r="AN20" s="25">
+        <f>AL20/AM20</f>
+        <v>0.71666666666666656</v>
+      </c>
+      <c r="AO20" s="25">
+        <f>AJ20*AK20</f>
+        <v>0.3221416666666666</v>
+      </c>
+      <c r="AP20" s="18">
+        <f>AH20*AK20</f>
+        <v>0.32963333333333328</v>
+      </c>
+      <c r="AQ20" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="18" thickBot="1">
+    <row r="21" spans="1:43" ht="18" thickBot="1">
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
@@ -2772,10 +2871,10 @@
         <v>2</v>
       </c>
       <c r="I21" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="8">
         <v>5</v>
@@ -2799,25 +2898,25 @@
         <v>2</v>
       </c>
       <c r="R21" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" s="8">
-        <v>3</v>
-      </c>
-      <c r="U21" s="9">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="U21" s="8">
+        <v>3</v>
       </c>
       <c r="V21" s="9">
-        <v>3</v>
-      </c>
-      <c r="W21" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W21" s="9">
+        <v>3</v>
       </c>
       <c r="X21" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y21" s="8">
         <v>5</v>
@@ -2840,30 +2939,36 @@
       <c r="AE21" s="8">
         <v>5</v>
       </c>
-      <c r="AF21" s="17">
+      <c r="AF21" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="20">
+        <v>3</v>
+      </c>
+      <c r="AH21" s="17">
         <f t="shared" si="0"/>
-        <v>3.6071428571428572</v>
-      </c>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="18">
-        <f>AF21*AI20</f>
-        <v>0.32428214285714285</v>
-      </c>
-      <c r="AO21" s="13" t="s">
+        <v>3.5666666666666669</v>
+      </c>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="18">
+        <f>AH21*AK20</f>
+        <v>0.32064333333333334</v>
+      </c>
+      <c r="AQ21" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="18" thickBot="1">
+    <row r="22" spans="1:43" ht="18" thickBot="1">
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -2883,10 +2988,10 @@
         <v>3</v>
       </c>
       <c r="I22" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" s="8">
         <v>5</v>
@@ -2910,25 +3015,25 @@
         <v>2</v>
       </c>
       <c r="R22" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S22" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" s="8">
-        <v>2</v>
-      </c>
-      <c r="U22" s="9">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="U22" s="8">
+        <v>2</v>
       </c>
       <c r="V22" s="9">
-        <v>2</v>
-      </c>
-      <c r="W22" s="8">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="W22" s="9">
+        <v>2</v>
       </c>
       <c r="X22" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y22" s="8">
         <v>5</v>
@@ -2951,30 +3056,36 @@
       <c r="AE22" s="8">
         <v>5</v>
       </c>
-      <c r="AF22" s="17">
+      <c r="AF22" s="20">
+        <v>2</v>
+      </c>
+      <c r="AG22" s="20">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="17">
         <f t="shared" si="0"/>
-        <v>3.4642857142857144</v>
-      </c>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="18">
-        <f>AF22*AI20</f>
-        <v>0.3114392857142857</v>
-      </c>
-      <c r="AO22" s="13" t="s">
+        <v>3.4</v>
+      </c>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="18">
+        <f>AH22*AK20</f>
+        <v>0.30565999999999999</v>
+      </c>
+      <c r="AQ22" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="18" thickBot="1">
+    <row r="23" spans="1:43" ht="18" thickBot="1">
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
@@ -2994,10 +3105,10 @@
         <v>4</v>
       </c>
       <c r="I23" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" s="8">
         <v>5</v>
@@ -3021,25 +3132,25 @@
         <v>3</v>
       </c>
       <c r="R23" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S23" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" s="8">
-        <v>2</v>
-      </c>
-      <c r="U23" s="9">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="U23" s="8">
+        <v>2</v>
       </c>
       <c r="V23" s="9">
-        <v>2</v>
-      </c>
-      <c r="W23" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W23" s="9">
+        <v>2</v>
       </c>
       <c r="X23" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y23" s="8">
         <v>5</v>
@@ -3062,30 +3173,36 @@
       <c r="AE23" s="8">
         <v>5</v>
       </c>
-      <c r="AF23" s="17">
+      <c r="AF23" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="20">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="17">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="18">
-        <f>AF23*AI20</f>
-        <v>0.33712499999999995</v>
-      </c>
-      <c r="AO23" s="13" t="s">
+        <v>3.7</v>
+      </c>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="18">
+        <f>AH23*AK20</f>
+        <v>0.33262999999999998</v>
+      </c>
+      <c r="AQ23" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="18" thickBot="1">
+    <row r="24" spans="1:43" ht="18" thickBot="1">
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3107,10 +3224,10 @@
         <v>3</v>
       </c>
       <c r="I24" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" s="8">
         <v>5</v>
@@ -3134,25 +3251,25 @@
         <v>2</v>
       </c>
       <c r="R24" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S24" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24" s="8">
-        <v>2</v>
-      </c>
-      <c r="U24" s="9">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="U24" s="8">
+        <v>2</v>
       </c>
       <c r="V24" s="9">
         <v>3</v>
       </c>
-      <c r="W24" s="8">
-        <v>4</v>
+      <c r="W24" s="9">
+        <v>3</v>
       </c>
       <c r="X24" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y24" s="8">
         <v>5</v>
@@ -3175,50 +3292,56 @@
       <c r="AE24" s="8">
         <v>4</v>
       </c>
-      <c r="AF24" s="17">
+      <c r="AF24" s="20">
+        <v>4</v>
+      </c>
+      <c r="AG24" s="20">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="17">
         <f t="shared" si="0"/>
-        <v>3.5714285714285716</v>
-      </c>
-      <c r="AG24" s="24">
-        <f>SUM(AF24:AF26)</f>
-        <v>11.035714285714286</v>
-      </c>
-      <c r="AH24" s="24">
-        <f>AG24/3</f>
-        <v>3.6785714285714288</v>
-      </c>
-      <c r="AI24" s="24">
+        <v>3.6333333333333333</v>
+      </c>
+      <c r="AI24" s="25">
+        <f>SUM(AH24:AH26)</f>
+        <v>11.1</v>
+      </c>
+      <c r="AJ24" s="25">
+        <f>AI24/3</f>
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="AK24" s="25">
         <v>0.28810000000000002</v>
       </c>
-      <c r="AJ24" s="24">
-        <f>AG24*AI24</f>
-        <v>3.179389285714286</v>
-      </c>
-      <c r="AK24" s="24">
-        <f>15*AI24</f>
+      <c r="AL24" s="25">
+        <f>AI24*AK24</f>
+        <v>3.1979100000000003</v>
+      </c>
+      <c r="AM24" s="25">
+        <f>15*AK24</f>
         <v>4.3215000000000003</v>
       </c>
-      <c r="AL24" s="24">
-        <f>AJ24/AK24</f>
-        <v>0.73571428571428577</v>
-      </c>
-      <c r="AM24" s="24">
-        <f>AH24*AI24</f>
-        <v>1.0597964285714288</v>
-      </c>
-      <c r="AN24" s="18">
-        <f>AF24*AI24</f>
-        <v>1.0289285714285716</v>
-      </c>
-      <c r="AO24" s="13" t="s">
+      <c r="AN24" s="25">
+        <f>AL24/AM24</f>
+        <v>0.74</v>
+      </c>
+      <c r="AO24" s="25">
+        <f>AJ24*AK24</f>
+        <v>1.0659700000000001</v>
+      </c>
+      <c r="AP24" s="18">
+        <f>AH24*AK24</f>
+        <v>1.0467633333333335</v>
+      </c>
+      <c r="AQ24" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="18" thickBot="1">
+    <row r="25" spans="1:43" ht="18" thickBot="1">
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
@@ -3238,10 +3361,10 @@
         <v>3</v>
       </c>
       <c r="I25" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J25" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" s="8">
         <v>5</v>
@@ -3265,25 +3388,25 @@
         <v>3</v>
       </c>
       <c r="R25" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" s="8">
-        <v>2</v>
-      </c>
-      <c r="U25" s="9">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="U25" s="8">
+        <v>2</v>
       </c>
       <c r="V25" s="9">
-        <v>3</v>
-      </c>
-      <c r="W25" s="8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W25" s="9">
+        <v>3</v>
       </c>
       <c r="X25" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y25" s="8">
         <v>5</v>
@@ -3306,30 +3429,36 @@
       <c r="AE25" s="8">
         <v>5</v>
       </c>
-      <c r="AF25" s="17">
+      <c r="AF25" s="20">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="20">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="17">
         <f t="shared" si="0"/>
-        <v>3.8928571428571428</v>
-      </c>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="18">
-        <f>AF25*AI24</f>
-        <v>1.121532142857143</v>
-      </c>
-      <c r="AO25" s="13" t="s">
+        <v>3.9333333333333331</v>
+      </c>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="18">
+        <f>AH25*AK24</f>
+        <v>1.1331933333333333</v>
+      </c>
+      <c r="AQ25" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="18" thickBot="1">
+    <row r="26" spans="1:43" ht="18" thickBot="1">
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="7" t="s">
         <v>12</v>
       </c>
@@ -3349,10 +3478,10 @@
         <v>2</v>
       </c>
       <c r="I26" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J26" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K26" s="8">
         <v>5</v>
@@ -3376,25 +3505,25 @@
         <v>2</v>
       </c>
       <c r="R26" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S26" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" s="8">
-        <v>2</v>
-      </c>
-      <c r="U26" s="9">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="U26" s="8">
+        <v>2</v>
       </c>
       <c r="V26" s="9">
-        <v>2</v>
-      </c>
-      <c r="W26" s="8">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="W26" s="9">
+        <v>2</v>
       </c>
       <c r="X26" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y26" s="8">
         <v>5</v>
@@ -3417,62 +3546,68 @@
       <c r="AE26" s="8">
         <v>4</v>
       </c>
-      <c r="AF26" s="17">
+      <c r="AF26" s="20">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="20">
+        <v>3</v>
+      </c>
+      <c r="AH26" s="17">
         <f t="shared" si="0"/>
-        <v>3.5714285714285716</v>
-      </c>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="18">
-        <f>AF26*AI24</f>
-        <v>1.0289285714285716</v>
-      </c>
-      <c r="AO26" s="13" t="s">
+        <v>3.5333333333333332</v>
+      </c>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="18">
+        <f>AH26*AK24</f>
+        <v>1.0179533333333335</v>
+      </c>
+      <c r="AQ26" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
-      <c r="AG27" s="19">
-        <f t="shared" ref="AG27:AM27" si="1">SUM(AG6:AG26)</f>
-        <v>80.928571428571431</v>
-      </c>
-      <c r="AH27" s="19">
+    <row r="27" spans="1:43">
+      <c r="AI27" s="19">
+        <f t="shared" ref="AI27:AO27" si="1">SUM(AI6:AI26)</f>
+        <v>80.633333333333326</v>
+      </c>
+      <c r="AJ27" s="19">
         <f t="shared" si="1"/>
-        <v>19.076388888888889</v>
-      </c>
-      <c r="AI27" s="19">
+        <v>18.999999999999996</v>
+      </c>
+      <c r="AK27" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ27" s="19">
+      <c r="AL27" s="19">
         <f t="shared" si="1"/>
-        <v>16.768449999999998</v>
-      </c>
-      <c r="AK27" s="19">
+        <v>16.741396666666667</v>
+      </c>
+      <c r="AM27" s="19">
         <f t="shared" si="1"/>
         <v>21.736499999999999</v>
       </c>
-      <c r="AL27" s="19">
+      <c r="AN27" s="19">
         <f t="shared" si="1"/>
-        <v>3.8152777777777778</v>
-      </c>
-      <c r="AM27" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="AO27" s="19">
         <f t="shared" si="1"/>
-        <v>3.8001266865079364</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41">
+        <v>3.7953883333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="D28" s="16">
         <f>AVERAGE(D6:D26)</f>
         <v>4.7142857142857144</v>
       </c>
       <c r="E28" s="16">
-        <f t="shared" ref="E28:AE28" si="2">AVERAGE(E6:E26)</f>
+        <f t="shared" ref="E28:AG28" si="2">AVERAGE(E6:E26)</f>
         <v>4.5714285714285712</v>
       </c>
       <c r="F28" s="16">
@@ -3488,12 +3623,12 @@
         <v>2.9047619047619047</v>
       </c>
       <c r="I28" s="16">
+        <f>AVERAGE(I6:I26)</f>
+        <v>2.7619047619047619</v>
+      </c>
+      <c r="J28" s="16">
         <f t="shared" si="2"/>
         <v>4.5714285714285712</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="2"/>
-        <v>2.7619047619047619</v>
       </c>
       <c r="K28" s="16">
         <f t="shared" si="2"/>
@@ -3524,32 +3659,32 @@
         <v>2.9047619047619047</v>
       </c>
       <c r="R28" s="16">
+        <f>AVERAGE(R6:R26)</f>
+        <v>3.1904761904761907</v>
+      </c>
+      <c r="S28" s="16">
         <f t="shared" si="2"/>
         <v>4.9047619047619051</v>
       </c>
-      <c r="S28" s="16">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="T28" s="16">
         <f t="shared" si="2"/>
-        <v>3.0952380952380953</v>
+        <v>4</v>
       </c>
       <c r="U28" s="16">
         <f t="shared" si="2"/>
-        <v>3.4761904761904763</v>
+        <v>3.0952380952380953</v>
       </c>
       <c r="V28" s="16">
         <f t="shared" si="2"/>
-        <v>2.9523809523809526</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="W28" s="16">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2.9523809523809526</v>
       </c>
       <c r="X28" s="16">
         <f t="shared" si="2"/>
-        <v>3.1904761904761907</v>
+        <v>4</v>
       </c>
       <c r="Y28" s="16">
         <f t="shared" si="2"/>
@@ -3579,76 +3714,84 @@
         <f t="shared" si="2"/>
         <v>4.4761904761904763</v>
       </c>
-      <c r="AG28" s="19">
+      <c r="AF28" s="16">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AG28" s="16">
+        <f t="shared" si="2"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="AI28" s="19">
         <v>105</v>
       </c>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="19">
-        <f>AJ27/AK27</f>
-        <v>0.77144204448738285</v>
-      </c>
-      <c r="AL28" s="19">
-        <f>AVERAGE(AL6:AL26)</f>
-        <v>0.7630555555555556</v>
-      </c>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
       <c r="AM28" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41">
-      <c r="AG29" s="19">
-        <f>AG27/AG28</f>
-        <v>0.77074829931972788</v>
-      </c>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
+        <f>AL27/AM27</f>
+        <v>0.77019744055697403</v>
+      </c>
+      <c r="AN28" s="19">
+        <f>AVERAGE(AN6:AN26)</f>
+        <v>0.76</v>
+      </c>
+      <c r="AO28" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="AI29" s="19">
+        <f>AI27/AI28</f>
+        <v>0.76793650793650792</v>
+      </c>
       <c r="AJ29" s="16"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19">
-        <f>AM27/AM28</f>
-        <v>0.76002533730158728</v>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19">
+        <f>AO27/AO28</f>
+        <v>0.75907766666666665</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AN6:AN8"/>
+    <mergeCell ref="AN9:AN17"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AN20:AN23"/>
+    <mergeCell ref="AN24:AN26"/>
+    <mergeCell ref="AM6:AM8"/>
+    <mergeCell ref="AM9:AM17"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AM20:AM23"/>
+    <mergeCell ref="AM24:AM26"/>
+    <mergeCell ref="AO6:AO8"/>
+    <mergeCell ref="AO9:AO17"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AO20:AO23"/>
+    <mergeCell ref="AO24:AO26"/>
+    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="AJ9:AJ17"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AJ20:AJ23"/>
+    <mergeCell ref="AJ24:AJ26"/>
     <mergeCell ref="AL6:AL8"/>
     <mergeCell ref="AL9:AL17"/>
     <mergeCell ref="AL18:AL19"/>
     <mergeCell ref="AL20:AL23"/>
     <mergeCell ref="AL24:AL26"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="AI9:AI17"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AI20:AI23"/>
+    <mergeCell ref="AI24:AI26"/>
     <mergeCell ref="AK6:AK8"/>
-    <mergeCell ref="AK9:AK17"/>
-    <mergeCell ref="AK18:AK19"/>
     <mergeCell ref="AK20:AK23"/>
     <mergeCell ref="AK24:AK26"/>
-    <mergeCell ref="AM6:AM8"/>
-    <mergeCell ref="AM9:AM17"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AM20:AM23"/>
-    <mergeCell ref="AM24:AM26"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="AH9:AH17"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AH20:AH23"/>
-    <mergeCell ref="AH24:AH26"/>
-    <mergeCell ref="AJ6:AJ8"/>
-    <mergeCell ref="AJ9:AJ17"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AJ20:AJ23"/>
-    <mergeCell ref="AJ24:AJ26"/>
-    <mergeCell ref="AG6:AG8"/>
-    <mergeCell ref="AG9:AG17"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AG20:AG23"/>
-    <mergeCell ref="AG24:AG26"/>
-    <mergeCell ref="AI6:AI8"/>
-    <mergeCell ref="AI20:AI23"/>
-    <mergeCell ref="AI24:AI26"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AI9:AI17"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AK9:AK17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B26"/>
@@ -3666,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA970D2-8447-8D47-B9FC-C4B1B79C4F8B}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3712,13 +3855,13 @@
     <row r="7" spans="1:1">
       <c r="A7">
         <f>Sheet1!I28</f>
-        <v>4.5714285714285712</v>
+        <v>2.7619047619047619</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f>Sheet1!J28</f>
-        <v>2.7619047619047619</v>
+        <v>4.5714285714285712</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3766,43 +3909,43 @@
     <row r="16" spans="1:1">
       <c r="A16">
         <f>Sheet1!R28</f>
-        <v>4.9047619047619051</v>
+        <v>3.1904761904761907</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
         <f>Sheet1!S28</f>
-        <v>4</v>
+        <v>4.9047619047619051</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
         <f>Sheet1!T28</f>
-        <v>3.0952380952380953</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
         <f>Sheet1!U28</f>
-        <v>3.4761904761904763</v>
+        <v>3.0952380952380953</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
         <f>Sheet1!V28</f>
-        <v>2.9523809523809526</v>
+        <v>3.4761904761904763</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
         <f>Sheet1!W28</f>
-        <v>4</v>
+        <v>2.9523809523809526</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
         <f>Sheet1!X28</f>
-        <v>3.1904761904761907</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3845,6 +3988,18 @@
       <c r="A29">
         <f>Sheet1!AE28</f>
         <v>4.4761904761904763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="16">
+        <f>Sheet1!AF28</f>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="16">
+        <f>Sheet1!AG28</f>
+        <v>3.7142857142857144</v>
       </c>
     </row>
   </sheetData>
@@ -3870,32 +4025,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <f>Sheet1!AH6</f>
-        <v>3.7738095238095237</v>
+        <f>Sheet1!AJ6</f>
+        <v>3.7666666666666671</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <f>Sheet1!AH9</f>
-        <v>4.0079365079365079</v>
+        <f>Sheet1!AJ9</f>
+        <v>3.9999999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <f>Sheet1!AH18</f>
-        <v>3.9821428571428568</v>
+        <f>Sheet1!AJ18</f>
+        <v>3.95</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <f>Sheet1!AH20</f>
-        <v>3.6339285714285712</v>
+        <f>Sheet1!AJ20</f>
+        <v>3.583333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <f>Sheet1!AH24</f>
-        <v>3.6785714285714288</v>
+        <f>Sheet1!AJ24</f>
+        <v>3.6999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3908,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26A963-9626-6C4D-B17E-5EA61508713C}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3921,31 +4076,31 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <f>Sheet1!AI6</f>
+        <f>Sheet1!AK6</f>
         <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <f>Sheet1!AI9</f>
+        <f>Sheet1!AK9</f>
         <v>0.22120000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <f>Sheet1!AI18</f>
+        <f>Sheet1!AK18</f>
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <f>Sheet1!AI20</f>
+        <f>Sheet1!AK20</f>
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <f>Sheet1!AI24</f>
+        <f>Sheet1!AK24</f>
         <v>0.28810000000000002</v>
       </c>
     </row>
